--- a/Dokumenty/ŠTÍTKY.xlsx
+++ b/Dokumenty/ŠTÍTKY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\R-built Tool\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70932822-2A16-4415-9B7A-26D7075B72C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D953CB6-B301-442B-8D6F-F02C23F8A5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36375" yWindow="15" windowWidth="18255" windowHeight="15345" tabRatio="962" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="962" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R-built s.r.o." sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="13">
   <si>
     <t>Vypracoval</t>
   </si>
@@ -476,10 +476,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -489,21 +504,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1562,8 +1562,8 @@
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -1573,26 +1573,26 @@
       <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="31"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1606,18 +1606,18 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1626,18 +1626,18 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
@@ -1656,40 +1656,41 @@
       <c r="C11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="str">
         <f>A2</f>
         <v>Karolína Dittrichová</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
+      <c r="B12" s="4">
+        <f>B2</f>
+        <v>0</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="31"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1706,12 +1707,12 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="29">
         <f>A6</f>
         <v>0</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
@@ -1721,9 +1722,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
@@ -1732,21 +1733,21 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="26">
+      <c r="A18" s="31"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="35">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16"/>
@@ -1765,8 +1766,8 @@
       <c r="C21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="str">
@@ -1780,26 +1781,26 @@
       <c r="C22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="31"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -1816,12 +1817,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+      <c r="A26" s="29">
         <f>A6</f>
         <v>0</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="7" t="s">
         <v>9</v>
       </c>
@@ -1831,9 +1832,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="7" t="s">
         <v>10</v>
       </c>
@@ -1842,21 +1843,21 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="26">
+      <c r="A28" s="31"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="35">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
     </row>
     <row r="30" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16"/>
@@ -1875,8 +1876,8 @@
       <c r="C31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="str">
@@ -1890,26 +1891,26 @@
       <c r="C32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="31"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -1926,12 +1927,12 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
+      <c r="A36" s="29">
         <f>A6</f>
         <v>0</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="7" t="s">
         <v>9</v>
       </c>
@@ -1941,9 +1942,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="7" t="s">
         <v>10</v>
       </c>
@@ -1952,21 +1953,21 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="26">
+      <c r="A38" s="31"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="35">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="E38" s="27"/>
+      <c r="E38" s="36"/>
     </row>
     <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
     </row>
     <row r="40" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16"/>
@@ -1981,14 +1982,6 @@
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="A6:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="A36:C39"/>
     <mergeCell ref="D38:E39"/>
@@ -2005,6 +1998,14 @@
     <mergeCell ref="B33:C34"/>
     <mergeCell ref="D33:E34"/>
     <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="A6:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait"/>
@@ -2039,8 +2040,8 @@
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2052,26 +2053,26 @@
       <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="31"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2085,18 +2086,18 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2105,18 +2106,18 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
@@ -2135,8 +2136,8 @@
       <c r="C11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="str">
@@ -2149,26 +2150,26 @@
       <c r="C12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="31"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -2185,12 +2186,12 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="29">
         <f>A6</f>
         <v>0</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
@@ -2200,9 +2201,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
@@ -2211,21 +2212,21 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="26">
+      <c r="A18" s="31"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="35">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16"/>
@@ -2244,8 +2245,8 @@
       <c r="C21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="str">
@@ -2258,26 +2259,26 @@
       <c r="C22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="31"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -2294,12 +2295,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+      <c r="A26" s="29">
         <f>A6</f>
         <v>0</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="7" t="s">
         <v>9</v>
       </c>
@@ -2309,9 +2310,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="7" t="s">
         <v>10</v>
       </c>
@@ -2320,21 +2321,21 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="26">
+      <c r="A28" s="31"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="35">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
     </row>
     <row r="30" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16"/>
@@ -2353,8 +2354,8 @@
       <c r="C31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="str">
@@ -2367,26 +2368,26 @@
       <c r="C32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="31"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -2403,12 +2404,12 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
+      <c r="A36" s="29">
         <f>A6</f>
         <v>0</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="7" t="s">
         <v>9</v>
       </c>
@@ -2418,9 +2419,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="7" t="s">
         <v>10</v>
       </c>
@@ -2429,21 +2430,21 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="26">
+      <c r="A38" s="31"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="35">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="E38" s="27"/>
+      <c r="E38" s="36"/>
     </row>
     <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
     </row>
     <row r="40" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16"/>
@@ -2454,14 +2455,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="A6:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="A36:C39"/>
     <mergeCell ref="D38:E39"/>
@@ -2478,9 +2471,296 @@
     <mergeCell ref="B33:C34"/>
     <mergeCell ref="D33:E34"/>
     <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="A6:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007EC404C8F9ED4B4A8EF7E9F67F966A35" ma:contentTypeVersion="16" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="2e2670db45ea458a1a602aed10a24247">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90d624bc-f8c7-40a2-a14c-aa533fc50cbf" xmlns:ns3="d1671c2b-4c7e-4219-95ee-0f4261c8a77a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96445c7cb3fc7092917a6972863812ce" ns2:_="" ns3:_="">
+    <xsd:import namespace="90d624bc-f8c7-40a2-a14c-aa533fc50cbf"/>
+    <xsd:import namespace="d1671c2b-4c7e-4219-95ee-0f4261c8a77a"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="90d624bc-f8c7-40a2-a14c-aa533fc50cbf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Značky obrázků" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="1b4c86d5-fdb7-44a8-bd31-37dfd976580f" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d1671c2b-4c7e-4219-95ee-0f4261c8a77a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Sdílí se s" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Sdílené s podrobnostmi" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{afd9d67b-dc8e-4b43-80b0-2eacfaa92cd6}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d1671c2b-4c7e-4219-95ee-0f4261c8a77a">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ obsahu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Nadpis"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FBBD80-D422-4D85-B010-EC017063C6A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E984F7D4-0FE9-429A-BABF-E62B6694A5EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="90d624bc-f8c7-40a2-a14c-aa533fc50cbf"/>
+    <ds:schemaRef ds:uri="d1671c2b-4c7e-4219-95ee-0f4261c8a77a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>